--- a/Code/Results/Cases/Case_2_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_99/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.20882232838441</v>
+        <v>21.1307724478878</v>
       </c>
       <c r="C2">
-        <v>17.53912234254833</v>
+        <v>10.93865540096599</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.971581441785679</v>
+        <v>10.1068152764238</v>
       </c>
       <c r="F2">
-        <v>41.84236237826062</v>
+        <v>49.6830764657261</v>
       </c>
       <c r="G2">
-        <v>2.120555176764282</v>
+        <v>3.750388757801944</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.41252517744837</v>
+        <v>36.57626929566658</v>
       </c>
       <c r="J2">
-        <v>6.807241434552112</v>
+        <v>10.2912964837885</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.025702357936087</v>
+        <v>11.39285899582205</v>
       </c>
       <c r="M2">
-        <v>12.45862551060259</v>
+        <v>18.57488265708863</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.87563970654921</v>
+        <v>20.88313522863472</v>
       </c>
       <c r="C3">
-        <v>16.25432067908023</v>
+        <v>10.44892478237944</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.72933611979574</v>
+        <v>10.05357985249676</v>
       </c>
       <c r="F3">
-        <v>40.46926426860388</v>
+        <v>49.50226214171023</v>
       </c>
       <c r="G3">
-        <v>2.132885865325961</v>
+        <v>3.754635444520498</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.65888550372687</v>
+        <v>36.4820632487174</v>
       </c>
       <c r="J3">
-        <v>6.867107227976089</v>
+        <v>10.30676921505165</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.996714242436443</v>
+        <v>11.41594134071745</v>
       </c>
       <c r="M3">
-        <v>12.00426215075276</v>
+        <v>18.5641752541184</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.029640918623</v>
+        <v>20.7365304265991</v>
       </c>
       <c r="C4">
-        <v>15.42860190428963</v>
+        <v>10.13996049795043</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.57926982627321</v>
+        <v>10.02019853670067</v>
       </c>
       <c r="F4">
-        <v>39.63845544884113</v>
+        <v>49.40107105256259</v>
       </c>
       <c r="G4">
-        <v>2.140613440375577</v>
+        <v>3.757376674370179</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.21141554707454</v>
+        <v>36.43061912813563</v>
       </c>
       <c r="J4">
-        <v>6.905078585229784</v>
+        <v>10.31682599618265</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.981558517196031</v>
+        <v>11.43156158228478</v>
       </c>
       <c r="M4">
-        <v>11.726453261826</v>
+        <v>18.56171826021271</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67818135855723</v>
+        <v>20.67823125994583</v>
       </c>
       <c r="C5">
-        <v>15.08266123263723</v>
+        <v>10.01218485203055</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.517749507319206</v>
+        <v>10.00642132125682</v>
       </c>
       <c r="F5">
-        <v>39.30317246260198</v>
+        <v>49.36232404868013</v>
       </c>
       <c r="G5">
-        <v>2.143805196428687</v>
+        <v>3.758527513439943</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.03286318005242</v>
+        <v>36.41126791878658</v>
       </c>
       <c r="J5">
-        <v>6.920856417086929</v>
+        <v>10.32106414938</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.976041117705323</v>
+        <v>11.43829168267511</v>
       </c>
       <c r="M5">
-        <v>11.61366879557464</v>
+        <v>18.56175495923125</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.61942369667988</v>
+        <v>20.66864001519183</v>
       </c>
       <c r="C6">
-        <v>15.02464192557904</v>
+        <v>9.990861473013609</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.507511121119958</v>
+        <v>10.00412312918891</v>
       </c>
       <c r="F6">
-        <v>39.24770308456564</v>
+        <v>49.35604092997938</v>
       </c>
       <c r="G6">
-        <v>2.144337857353618</v>
+        <v>3.758720652681392</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.00344272693945</v>
+        <v>36.40815214458974</v>
       </c>
       <c r="J6">
-        <v>6.923494669555128</v>
+        <v>10.32177634334921</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.975164563678977</v>
+        <v>11.43943126007769</v>
       </c>
       <c r="M6">
-        <v>11.59497079740901</v>
+        <v>18.56182380599275</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.02492786577568</v>
+        <v>20.73573824351788</v>
       </c>
       <c r="C7">
-        <v>15.42397494029559</v>
+        <v>10.13824454769821</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.578441665979406</v>
+        <v>10.02001343628026</v>
       </c>
       <c r="F7">
-        <v>39.63392015869539</v>
+        <v>49.40053839771874</v>
       </c>
       <c r="G7">
-        <v>2.140656308358895</v>
+        <v>3.757392058097003</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.20899221471507</v>
+        <v>36.43035161774809</v>
       </c>
       <c r="J7">
-        <v>6.905290139744865</v>
+        <v>10.3168825868314</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.981481448585201</v>
+        <v>11.43165086906541</v>
       </c>
       <c r="M7">
-        <v>11.72493030679229</v>
+        <v>18.56171454964582</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.75491848006986</v>
+        <v>21.0443023704971</v>
       </c>
       <c r="C8">
-        <v>17.10365039239411</v>
+        <v>10.77162940697876</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.888307551045285</v>
+        <v>10.08860421012911</v>
       </c>
       <c r="F8">
-        <v>41.36647389214767</v>
+        <v>49.6187028839329</v>
       </c>
       <c r="G8">
-        <v>2.12477643379233</v>
+        <v>3.751825336956548</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.14947239710889</v>
+        <v>36.54246161844855</v>
       </c>
       <c r="J8">
-        <v>6.82763053789772</v>
+        <v>10.29651599236082</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.015155117658543</v>
+        <v>11.40051777414732</v>
       </c>
       <c r="M8">
-        <v>12.30179053267075</v>
+        <v>18.57033791193368</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.10807460581457</v>
+        <v>21.68920412804532</v>
       </c>
       <c r="C9">
-        <v>20.1147254175864</v>
+        <v>11.94022035571664</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.487488846873267</v>
+        <v>10.21757646119735</v>
       </c>
       <c r="F9">
-        <v>44.85519931113206</v>
+        <v>50.12362385239805</v>
       </c>
       <c r="G9">
-        <v>2.094709208872119</v>
+        <v>3.741964127370006</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.11757927031087</v>
+        <v>36.81286004613271</v>
       </c>
       <c r="J9">
-        <v>6.685046655724358</v>
+        <v>10.26099180581486</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.102434857901471</v>
+        <v>11.35092021458638</v>
       </c>
       <c r="M9">
-        <v>13.43758633851565</v>
+        <v>18.61977958822673</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.48532833882786</v>
+        <v>22.18258559501976</v>
       </c>
       <c r="C10">
-        <v>22.16973435665311</v>
+        <v>12.74510620935807</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.926378896584153</v>
+        <v>10.30893236789282</v>
       </c>
       <c r="F10">
-        <v>47.46985146360382</v>
+        <v>50.54021924767995</v>
       </c>
       <c r="G10">
-        <v>2.073008109877133</v>
+        <v>3.735353767964646</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.64452931618487</v>
+        <v>37.04195898466156</v>
       </c>
       <c r="J10">
-        <v>6.586389095846163</v>
+        <v>10.23758213610583</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.179919301928492</v>
+        <v>11.32142106817061</v>
       </c>
       <c r="M10">
-        <v>14.27020530036104</v>
+        <v>18.67571492515855</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.52879657222132</v>
+        <v>22.41026764943875</v>
       </c>
       <c r="C11">
-        <v>23.07441493186811</v>
+        <v>13.09815844135032</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.126919001351277</v>
+        <v>10.34974855186563</v>
       </c>
       <c r="F11">
-        <v>48.67109948812761</v>
+        <v>50.73929777125068</v>
       </c>
       <c r="G11">
-        <v>2.063151204029102</v>
+        <v>3.732482526652642</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.3586506563545</v>
+        <v>37.15267949151917</v>
       </c>
       <c r="J11">
-        <v>6.542902270157687</v>
+        <v>10.22751635545467</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.218171093425966</v>
+        <v>11.30949890241647</v>
       </c>
       <c r="M11">
-        <v>14.7471545950579</v>
+        <v>18.70535950959064</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.91879844019942</v>
+        <v>22.49686553733859</v>
       </c>
       <c r="C12">
-        <v>23.41303987032903</v>
+        <v>13.22986987443831</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.203110202870874</v>
+        <v>10.36509719441714</v>
       </c>
       <c r="F12">
-        <v>49.12784566203248</v>
+        <v>50.81602552219493</v>
       </c>
       <c r="G12">
-        <v>2.059414087621785</v>
+        <v>3.731414655381653</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.63209344917376</v>
+        <v>37.19552939565334</v>
       </c>
       <c r="J12">
-        <v>6.526644322274916</v>
+        <v>10.22378861624723</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.233097571587884</v>
+        <v>11.30519880065348</v>
       </c>
       <c r="M12">
-        <v>14.95190542984741</v>
+        <v>18.71718284524942</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.83502731049576</v>
+        <v>22.47819961307081</v>
       </c>
       <c r="C13">
-        <v>23.34028036086243</v>
+        <v>13.20159301043385</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.186687652806674</v>
+        <v>10.36179638708589</v>
       </c>
       <c r="F13">
-        <v>49.02939083858552</v>
+        <v>50.7994417635439</v>
       </c>
       <c r="G13">
-        <v>2.060219260461423</v>
+        <v>3.731643779547372</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.57306418898817</v>
+        <v>37.18626009096148</v>
       </c>
       <c r="J13">
-        <v>6.530136262359447</v>
+        <v>10.22458771668103</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.229863090444806</v>
+        <v>11.30611537338471</v>
       </c>
       <c r="M13">
-        <v>14.90794203193494</v>
+        <v>18.71461000766203</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.56098317305009</v>
+        <v>22.41738499260534</v>
       </c>
       <c r="C14">
-        <v>23.10235077489174</v>
+        <v>13.10903464904117</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.13318146618491</v>
+        <v>10.35101345450552</v>
       </c>
       <c r="F14">
-        <v>48.7086377179027</v>
+        <v>50.74558354057548</v>
       </c>
       <c r="G14">
-        <v>2.062843881558122</v>
+        <v>3.732394284062091</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.38108496013191</v>
+        <v>37.15618636865647</v>
       </c>
       <c r="J14">
-        <v>6.541560455378709</v>
+        <v>10.2272079891823</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.219390198591177</v>
+        <v>11.3091408344689</v>
       </c>
       <c r="M14">
-        <v>14.76405994322167</v>
+        <v>18.7063202844274</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.39246473074136</v>
+        <v>22.38018117419667</v>
       </c>
       <c r="C15">
-        <v>22.95610872526417</v>
+        <v>13.05207922636501</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.10044417951822</v>
+        <v>10.34439456396952</v>
       </c>
       <c r="F15">
-        <v>48.51241584073028</v>
+        <v>50.71276739465054</v>
       </c>
       <c r="G15">
-        <v>2.064450734247887</v>
+        <v>3.732856513100879</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.26389298683384</v>
+        <v>37.13788507852627</v>
       </c>
       <c r="J15">
-        <v>6.548585720212216</v>
+        <v>10.22882391689093</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.213033034439105</v>
+        <v>11.31102193758071</v>
       </c>
       <c r="M15">
-        <v>14.6755342537361</v>
+        <v>18.70132021444294</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.41639766735176</v>
+        <v>22.16776384432449</v>
       </c>
       <c r="C16">
-        <v>22.11003571880952</v>
+        <v>12.7217611134928</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.913300954488776</v>
+        <v>10.30624992935023</v>
       </c>
       <c r="F16">
-        <v>47.3915963342407</v>
+        <v>50.52739860237769</v>
       </c>
       <c r="G16">
-        <v>2.073652034688772</v>
+        <v>3.735544132857633</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.59826933694</v>
+        <v>37.0348529396888</v>
       </c>
       <c r="J16">
-        <v>6.589259819902544</v>
+        <v>10.23825170312388</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.177480670446776</v>
+        <v>11.32223027450167</v>
       </c>
       <c r="M16">
-        <v>14.24548907209985</v>
+        <v>18.67386156008947</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.80810211992146</v>
+        <v>22.03822097777795</v>
       </c>
       <c r="C17">
-        <v>21.58352719445422</v>
+        <v>12.51569245437779</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.798801823277706</v>
+        <v>10.28265876659124</v>
       </c>
       <c r="F17">
-        <v>46.70712059993023</v>
+        <v>50.4161073195005</v>
       </c>
       <c r="G17">
-        <v>2.079296122320812</v>
+        <v>3.737227601793621</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.19506096522252</v>
+        <v>36.97330295897346</v>
       </c>
       <c r="J17">
-        <v>6.614574562672463</v>
+        <v>10.24418480856636</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.156446007994347</v>
+        <v>11.32948916936025</v>
       </c>
       <c r="M17">
-        <v>14.02878606690091</v>
+        <v>18.65808783985169</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.45463161346904</v>
+        <v>21.96402148138907</v>
       </c>
       <c r="C18">
-        <v>21.27782974915899</v>
+        <v>12.39593953590017</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.733019629604581</v>
+        <v>10.2690199577757</v>
       </c>
       <c r="F18">
-        <v>46.31452638004944</v>
+        <v>50.35299826474018</v>
       </c>
       <c r="G18">
-        <v>2.082544318858928</v>
+        <v>3.738208682589045</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.96496575414053</v>
+        <v>36.93851390556014</v>
       </c>
       <c r="J18">
-        <v>6.629265344490261</v>
+        <v>10.24765228183874</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.144629510014847</v>
+        <v>11.33380525601731</v>
       </c>
       <c r="M18">
-        <v>13.90406421126915</v>
+        <v>18.6494108889842</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.33432622409513</v>
+        <v>21.93895471513758</v>
       </c>
       <c r="C19">
-        <v>21.17382332931144</v>
+        <v>12.35518567330468</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.710756379087694</v>
+        <v>10.2643901296983</v>
       </c>
       <c r="F19">
-        <v>46.18178615370518</v>
+        <v>50.33178668840787</v>
       </c>
       <c r="G19">
-        <v>2.083644611410452</v>
+        <v>3.738543060995905</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.88736639028264</v>
+        <v>36.92684054962983</v>
       </c>
       <c r="J19">
-        <v>6.634261552153328</v>
+        <v>10.2488357373853</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.140676832391135</v>
+        <v>11.33529084106345</v>
       </c>
       <c r="M19">
-        <v>13.86182231399898</v>
+        <v>18.64654116135699</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.87322613478775</v>
+        <v>22.05197956726895</v>
       </c>
       <c r="C20">
-        <v>21.63986873234767</v>
+        <v>12.53775664059413</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.810981908414037</v>
+        <v>10.28517731587848</v>
       </c>
       <c r="F20">
-        <v>46.77986973819107</v>
+        <v>50.42786127937489</v>
       </c>
       <c r="G20">
-        <v>2.078695151760042</v>
+        <v>3.737047070456642</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.23779349713004</v>
+        <v>36.97979171652223</v>
       </c>
       <c r="J20">
-        <v>6.611866209955607</v>
+        <v>10.24354753617051</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.158655925835317</v>
+        <v>11.32870186375459</v>
       </c>
       <c r="M20">
-        <v>14.05186285600485</v>
+        <v>18.65972607189615</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.64161315590355</v>
+        <v>22.43523810111602</v>
       </c>
       <c r="C21">
-        <v>23.17234059840547</v>
+        <v>13.1362757791711</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.148889603722848</v>
+        <v>10.35418358918659</v>
       </c>
       <c r="F21">
-        <v>48.80279842835267</v>
+        <v>50.76136689948603</v>
       </c>
       <c r="G21">
-        <v>2.062073147502629</v>
+        <v>3.73217331705836</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.43738990010834</v>
+        <v>37.16499482200453</v>
       </c>
       <c r="J21">
-        <v>6.538199116869045</v>
+        <v>10.22643607263855</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.222454279378542</v>
+        <v>11.30824636584193</v>
       </c>
       <c r="M21">
-        <v>14.80640331693971</v>
+        <v>18.70873901220868</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.76760514050406</v>
+        <v>22.68789322716805</v>
       </c>
       <c r="C22">
-        <v>24.15104587250564</v>
+        <v>13.51585599950332</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.371271966418623</v>
+        <v>10.39865583169448</v>
       </c>
       <c r="F22">
-        <v>50.13589065057222</v>
+        <v>50.98713091456379</v>
       </c>
       <c r="G22">
-        <v>2.051179518623818</v>
+        <v>3.729101088064985</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.23915013424174</v>
+        <v>37.29140568996228</v>
       </c>
       <c r="J22">
-        <v>6.491281512699823</v>
+        <v>10.21574211957004</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.266728389529046</v>
+        <v>11.29612781238782</v>
       </c>
       <c r="M22">
-        <v>15.39686323584576</v>
+        <v>18.74425157807805</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.16924318697979</v>
+        <v>22.55287581369877</v>
       </c>
       <c r="C23">
-        <v>23.63064404526181</v>
+        <v>13.314355793053</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.252393536704435</v>
+        <v>10.37497784485912</v>
       </c>
       <c r="F23">
-        <v>49.42330795931659</v>
+        <v>50.86593490045745</v>
       </c>
       <c r="G23">
-        <v>2.056998887762457</v>
+        <v>3.730730492808566</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.80952247461105</v>
+        <v>37.22345099660685</v>
       </c>
       <c r="J23">
-        <v>6.516206083975518</v>
+        <v>10.22140488366249</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.242858996493887</v>
+        <v>11.30248155239177</v>
       </c>
       <c r="M23">
-        <v>15.08328662274659</v>
+        <v>18.72498168813445</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.84379528186735</v>
+        <v>22.04575844140664</v>
       </c>
       <c r="C24">
-        <v>21.61440609731663</v>
+        <v>12.52778540531309</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.805475161068072</v>
+        <v>10.28403891620186</v>
       </c>
       <c r="F24">
-        <v>46.74697699776731</v>
+        <v>50.42254458986304</v>
       </c>
       <c r="G24">
-        <v>2.078966839670628</v>
+        <v>3.73712864744901</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.21846879415745</v>
+        <v>36.97685628924272</v>
       </c>
       <c r="J24">
-        <v>6.613090230173617</v>
+        <v>10.24383547119026</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.157655961085872</v>
+        <v>11.32905735961427</v>
       </c>
       <c r="M24">
-        <v>14.04143026410669</v>
+        <v>18.65898420706364</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.19712740654237</v>
+        <v>21.51095886510729</v>
       </c>
       <c r="C25">
-        <v>19.32896764160306</v>
+        <v>11.63295414855104</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.325959612649386</v>
+        <v>10.18328112344007</v>
       </c>
       <c r="F25">
-        <v>43.90229852803203</v>
+        <v>49.97890563740937</v>
       </c>
       <c r="G25">
-        <v>2.102753744062285</v>
+        <v>3.744519774412373</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.57143136215405</v>
+        <v>36.73433144341883</v>
       </c>
       <c r="J25">
-        <v>6.72256629116697</v>
+        <v>10.27012957718841</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.076508263575414</v>
+        <v>11.36311577325764</v>
       </c>
       <c r="M25">
-        <v>13.13040399493898</v>
+        <v>18.60294193790598</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_99/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.1307724478878</v>
+        <v>21.20882232838442</v>
       </c>
       <c r="C2">
-        <v>10.93865540096599</v>
+        <v>17.5391223425484</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.1068152764238</v>
+        <v>6.971581441785797</v>
       </c>
       <c r="F2">
-        <v>49.6830764657261</v>
+        <v>41.8423623782608</v>
       </c>
       <c r="G2">
-        <v>3.750388757801944</v>
+        <v>2.120555176763889</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.57626929566658</v>
+        <v>30.41252517744851</v>
       </c>
       <c r="J2">
-        <v>10.2912964837885</v>
+        <v>6.807241434552089</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.39285899582205</v>
+        <v>6.025702357936188</v>
       </c>
       <c r="M2">
-        <v>18.57488265708863</v>
+        <v>12.45862551060262</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.88313522863472</v>
+        <v>19.8756397065492</v>
       </c>
       <c r="C3">
-        <v>10.44892478237944</v>
+        <v>16.25432067908015</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.05357985249676</v>
+        <v>6.729336119795852</v>
       </c>
       <c r="F3">
-        <v>49.50226214171023</v>
+        <v>40.46926426860401</v>
       </c>
       <c r="G3">
-        <v>3.754635444520498</v>
+        <v>2.132885865325959</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>36.4820632487174</v>
+        <v>29.6588855037269</v>
       </c>
       <c r="J3">
-        <v>10.30676921505165</v>
+        <v>6.867107227976057</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.41594134071745</v>
+        <v>5.996714242436499</v>
       </c>
       <c r="M3">
-        <v>18.5641752541184</v>
+        <v>12.0042621507528</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.7365304265991</v>
+        <v>19.02964091862301</v>
       </c>
       <c r="C4">
-        <v>10.13996049795043</v>
+        <v>15.42860190428952</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.02019853670067</v>
+        <v>6.579269826273141</v>
       </c>
       <c r="F4">
-        <v>49.40107105256259</v>
+        <v>39.63845544884099</v>
       </c>
       <c r="G4">
-        <v>3.757376674370179</v>
+        <v>2.14061344037545</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>36.43061912813563</v>
+        <v>29.21141554707438</v>
       </c>
       <c r="J4">
-        <v>10.31682599618265</v>
+        <v>6.905078585229707</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.43156158228478</v>
+        <v>5.981558517196086</v>
       </c>
       <c r="M4">
-        <v>18.56171826021271</v>
+        <v>11.72645326182601</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.67823125994583</v>
+        <v>18.67818135855725</v>
       </c>
       <c r="C5">
-        <v>10.01218485203055</v>
+        <v>15.08266123263714</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.00642132125682</v>
+        <v>6.517749507319073</v>
       </c>
       <c r="F5">
-        <v>49.36232404868013</v>
+        <v>39.30317246260211</v>
       </c>
       <c r="G5">
-        <v>3.758527513439943</v>
+        <v>2.143805196428692</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.41126791878658</v>
+        <v>29.03286318005254</v>
       </c>
       <c r="J5">
-        <v>10.32106414938</v>
+        <v>6.920856417086956</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.43829168267511</v>
+        <v>5.976041117705332</v>
       </c>
       <c r="M5">
-        <v>18.56175495923125</v>
+        <v>11.61366879557466</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.66864001519183</v>
+        <v>18.61942369667993</v>
       </c>
       <c r="C6">
-        <v>9.990861473013609</v>
+        <v>15.02464192557897</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.00412312918891</v>
+        <v>6.507511121119886</v>
       </c>
       <c r="F6">
-        <v>49.35604092997938</v>
+        <v>39.24770308456591</v>
       </c>
       <c r="G6">
-        <v>3.758720652681392</v>
+        <v>2.144337857354022</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.40815214458974</v>
+        <v>29.0034427269397</v>
       </c>
       <c r="J6">
-        <v>10.32177634334921</v>
+        <v>6.923494669555126</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.43943126007769</v>
+        <v>5.975164563678951</v>
       </c>
       <c r="M6">
-        <v>18.56182380599275</v>
+        <v>11.59497079740909</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.73573824351788</v>
+        <v>19.02492786577569</v>
       </c>
       <c r="C7">
-        <v>10.13824454769821</v>
+        <v>15.42397494029554</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.02001343628026</v>
+        <v>6.578441665979527</v>
       </c>
       <c r="F7">
-        <v>49.40053839771874</v>
+        <v>39.63392015869535</v>
       </c>
       <c r="G7">
-        <v>3.757392058097003</v>
+        <v>2.140656308359161</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36.43035161774809</v>
+        <v>29.20899221471501</v>
       </c>
       <c r="J7">
-        <v>10.3168825868314</v>
+        <v>6.9052901397449</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.43165086906541</v>
+        <v>5.981481448585225</v>
       </c>
       <c r="M7">
-        <v>18.56171454964582</v>
+        <v>11.72493030679229</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.0443023704971</v>
+        <v>20.75491848006986</v>
       </c>
       <c r="C8">
-        <v>10.77162940697876</v>
+        <v>17.10365039239423</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.08860421012911</v>
+        <v>6.888307551045236</v>
       </c>
       <c r="F8">
-        <v>49.6187028839329</v>
+        <v>41.36647389214767</v>
       </c>
       <c r="G8">
-        <v>3.751825336956548</v>
+        <v>2.124776433792332</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.54246161844855</v>
+        <v>30.14947239710888</v>
       </c>
       <c r="J8">
-        <v>10.29651599236082</v>
+        <v>6.827630537897737</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.40051777414732</v>
+        <v>6.01515511765848</v>
       </c>
       <c r="M8">
-        <v>18.57033791193368</v>
+        <v>12.30179053267072</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.68920412804532</v>
+        <v>24.10807460581452</v>
       </c>
       <c r="C9">
-        <v>11.94022035571664</v>
+        <v>20.11472541758643</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.21757646119735</v>
+        <v>7.487488846873261</v>
       </c>
       <c r="F9">
-        <v>50.12362385239805</v>
+        <v>44.85519931113197</v>
       </c>
       <c r="G9">
-        <v>3.741964127370006</v>
+        <v>2.094709208872132</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.81286004613271</v>
+        <v>32.11757927031088</v>
       </c>
       <c r="J9">
-        <v>10.26099180581486</v>
+        <v>6.685046655724462</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.35092021458638</v>
+        <v>6.102434857901419</v>
       </c>
       <c r="M9">
-        <v>18.61977958822673</v>
+        <v>13.43758633851567</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.18258559501976</v>
+        <v>26.48532833882771</v>
       </c>
       <c r="C10">
-        <v>12.74510620935807</v>
+        <v>22.16973435665292</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.30893236789282</v>
+        <v>7.926378896583845</v>
       </c>
       <c r="F10">
-        <v>50.54021924767995</v>
+        <v>47.46985146360382</v>
       </c>
       <c r="G10">
-        <v>3.735353767964646</v>
+        <v>2.073008109876869</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.04195898466156</v>
+        <v>33.64452931618496</v>
       </c>
       <c r="J10">
-        <v>10.23758213610583</v>
+        <v>6.58638909584629</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.32142106817061</v>
+        <v>6.179919301928426</v>
       </c>
       <c r="M10">
-        <v>18.67571492515855</v>
+        <v>14.27020530036106</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.41026764943875</v>
+        <v>27.5287965722213</v>
       </c>
       <c r="C11">
-        <v>13.09815844135032</v>
+        <v>23.074414931868</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.34974855186563</v>
+        <v>8.126919001351151</v>
       </c>
       <c r="F11">
-        <v>50.73929777125068</v>
+        <v>48.67109948812763</v>
       </c>
       <c r="G11">
-        <v>3.732482526652642</v>
+        <v>2.063151204029237</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>37.15267949151917</v>
+        <v>34.35865065635451</v>
       </c>
       <c r="J11">
-        <v>10.22751635545467</v>
+        <v>6.542902270157709</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.30949890241647</v>
+        <v>6.218171093425945</v>
       </c>
       <c r="M11">
-        <v>18.70535950959064</v>
+        <v>14.74715459505791</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.49686553733859</v>
+        <v>27.91879844019943</v>
       </c>
       <c r="C12">
-        <v>13.22986987443831</v>
+        <v>23.41303987032899</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.36509719441714</v>
+        <v>8.203110202871017</v>
       </c>
       <c r="F12">
-        <v>50.81602552219493</v>
+        <v>49.12784566203256</v>
       </c>
       <c r="G12">
-        <v>3.731414655381653</v>
+        <v>2.059414087621783</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.19552939565334</v>
+        <v>34.63209344917383</v>
       </c>
       <c r="J12">
-        <v>10.22378861624723</v>
+        <v>6.526644322274951</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.30519880065348</v>
+        <v>6.233097571588005</v>
       </c>
       <c r="M12">
-        <v>18.71718284524942</v>
+        <v>14.95190542984738</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.47819961307081</v>
+        <v>27.83502731049576</v>
       </c>
       <c r="C13">
-        <v>13.20159301043385</v>
+        <v>23.34028036086268</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.36179638708589</v>
+        <v>8.186687652806892</v>
       </c>
       <c r="F13">
-        <v>50.7994417635439</v>
+        <v>49.02939083858575</v>
       </c>
       <c r="G13">
-        <v>3.731643779547372</v>
+        <v>2.060219260461828</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.18626009096148</v>
+        <v>34.57306418898835</v>
       </c>
       <c r="J13">
-        <v>10.22458771668103</v>
+        <v>6.530136262359385</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.30611537338471</v>
+        <v>6.229863090444793</v>
       </c>
       <c r="M13">
-        <v>18.71461000766203</v>
+        <v>14.9079420319349</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.41738499260534</v>
+        <v>27.56098317305011</v>
       </c>
       <c r="C14">
-        <v>13.10903464904117</v>
+        <v>23.10235077489174</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.35101345450552</v>
+        <v>8.133181466184961</v>
       </c>
       <c r="F14">
-        <v>50.74558354057548</v>
+        <v>48.70863771790268</v>
       </c>
       <c r="G14">
-        <v>3.732394284062091</v>
+        <v>2.062843881558395</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>37.15618636865647</v>
+        <v>34.38108496013188</v>
       </c>
       <c r="J14">
-        <v>10.2272079891823</v>
+        <v>6.541560455378797</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.3091408344689</v>
+        <v>6.219390198591207</v>
       </c>
       <c r="M14">
-        <v>18.7063202844274</v>
+        <v>14.76405994322168</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.38018117419667</v>
+        <v>27.39246473074122</v>
       </c>
       <c r="C15">
-        <v>13.05207922636501</v>
+        <v>22.95610872526412</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.34439456396952</v>
+        <v>8.100444179518039</v>
       </c>
       <c r="F15">
-        <v>50.71276739465054</v>
+        <v>48.51241584073041</v>
       </c>
       <c r="G15">
-        <v>3.732856513100879</v>
+        <v>2.064450734248287</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>37.13788507852627</v>
+        <v>34.263892986834</v>
       </c>
       <c r="J15">
-        <v>10.22882391689093</v>
+        <v>6.548585720212332</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.31102193758071</v>
+        <v>6.213033034438975</v>
       </c>
       <c r="M15">
-        <v>18.70132021444294</v>
+        <v>14.67553425373606</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.16776384432449</v>
+        <v>26.41639766735182</v>
       </c>
       <c r="C16">
-        <v>12.7217611134928</v>
+        <v>22.11003571880958</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.30624992935023</v>
+        <v>7.913300954488841</v>
       </c>
       <c r="F16">
-        <v>50.52739860237769</v>
+        <v>47.39159633424077</v>
       </c>
       <c r="G16">
-        <v>3.735544132857633</v>
+        <v>2.073652034688778</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.0348529396888</v>
+        <v>33.59826933694002</v>
       </c>
       <c r="J16">
-        <v>10.23825170312388</v>
+        <v>6.589259819902496</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.32223027450167</v>
+        <v>6.177480670446835</v>
       </c>
       <c r="M16">
-        <v>18.67386156008947</v>
+        <v>14.24548907209983</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.03822097777795</v>
+        <v>25.80810211992146</v>
       </c>
       <c r="C17">
-        <v>12.51569245437779</v>
+        <v>21.58352719445429</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.28265876659124</v>
+        <v>7.798801823277761</v>
       </c>
       <c r="F17">
-        <v>50.4161073195005</v>
+        <v>46.70712059993029</v>
       </c>
       <c r="G17">
-        <v>3.737227601793621</v>
+        <v>2.079296122320805</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>36.97330295897346</v>
+        <v>33.19506096522254</v>
       </c>
       <c r="J17">
-        <v>10.24418480856636</v>
+        <v>6.614574562672343</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.32948916936025</v>
+        <v>6.156446007994345</v>
       </c>
       <c r="M17">
-        <v>18.65808783985169</v>
+        <v>14.0287860669009</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.96402148138907</v>
+        <v>25.45463161346905</v>
       </c>
       <c r="C18">
-        <v>12.39593953590017</v>
+        <v>21.27782974915885</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.2690199577757</v>
+        <v>7.733019629604465</v>
       </c>
       <c r="F18">
-        <v>50.35299826474018</v>
+        <v>46.31452638004948</v>
       </c>
       <c r="G18">
-        <v>3.738208682589045</v>
+        <v>2.082544318858925</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.93851390556014</v>
+        <v>32.96496575414058</v>
       </c>
       <c r="J18">
-        <v>10.24765228183874</v>
+        <v>6.629265344490261</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.33380525601731</v>
+        <v>6.144629510014872</v>
       </c>
       <c r="M18">
-        <v>18.6494108889842</v>
+        <v>13.90406421126914</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.93895471513758</v>
+        <v>25.33432622409506</v>
       </c>
       <c r="C19">
-        <v>12.35518567330468</v>
+        <v>21.17382332931145</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.2643901296983</v>
+        <v>7.710756379087626</v>
       </c>
       <c r="F19">
-        <v>50.33178668840787</v>
+        <v>46.18178615370518</v>
       </c>
       <c r="G19">
-        <v>3.738543060995905</v>
+        <v>2.083644611410585</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36.92684054962983</v>
+        <v>32.88736639028268</v>
       </c>
       <c r="J19">
-        <v>10.2488357373853</v>
+        <v>6.634261552153357</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.33529084106345</v>
+        <v>6.140676832391103</v>
       </c>
       <c r="M19">
-        <v>18.64654116135699</v>
+        <v>13.861822313999</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.05197956726895</v>
+        <v>25.87322613478777</v>
       </c>
       <c r="C20">
-        <v>12.53775664059413</v>
+        <v>21.63986873234767</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.28517731587848</v>
+        <v>7.810981908413852</v>
       </c>
       <c r="F20">
-        <v>50.42786127937489</v>
+        <v>46.77986973819107</v>
       </c>
       <c r="G20">
-        <v>3.737047070456642</v>
+        <v>2.078695151760302</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>36.97979171652223</v>
+        <v>33.23779349713008</v>
       </c>
       <c r="J20">
-        <v>10.24354753617051</v>
+        <v>6.611866209955543</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.32870186375459</v>
+        <v>6.158655925835191</v>
       </c>
       <c r="M20">
-        <v>18.65972607189615</v>
+        <v>14.05186285600486</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.43523810111602</v>
+        <v>27.64161315590361</v>
       </c>
       <c r="C21">
-        <v>13.1362757791711</v>
+        <v>23.17234059840559</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.35418358918659</v>
+        <v>8.148889603723024</v>
       </c>
       <c r="F21">
-        <v>50.76136689948603</v>
+        <v>48.80279842835265</v>
       </c>
       <c r="G21">
-        <v>3.73217331705836</v>
+        <v>2.062073147502895</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37.16499482200453</v>
+        <v>34.43738990010834</v>
       </c>
       <c r="J21">
-        <v>10.22643607263855</v>
+        <v>6.538199116869055</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.30824636584193</v>
+        <v>6.222454279378535</v>
       </c>
       <c r="M21">
-        <v>18.70873901220868</v>
+        <v>14.80640331693972</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.68789322716805</v>
+        <v>28.76760514050411</v>
       </c>
       <c r="C22">
-        <v>13.51585599950332</v>
+        <v>24.15104587250564</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.39865583169448</v>
+        <v>8.371271966418799</v>
       </c>
       <c r="F22">
-        <v>50.98713091456379</v>
+        <v>50.13589065057226</v>
       </c>
       <c r="G22">
-        <v>3.729101088064985</v>
+        <v>2.051179518623944</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.29140568996228</v>
+        <v>35.23915013424174</v>
       </c>
       <c r="J22">
-        <v>10.21574211957004</v>
+        <v>6.491281512699778</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.29612781238782</v>
+        <v>6.266728389529133</v>
       </c>
       <c r="M22">
-        <v>18.74425157807805</v>
+        <v>15.39686323584575</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.55287581369877</v>
+        <v>28.16924318697975</v>
       </c>
       <c r="C23">
-        <v>13.314355793053</v>
+        <v>23.6306440452617</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.37497784485912</v>
+        <v>8.252393536704311</v>
       </c>
       <c r="F23">
-        <v>50.86593490045745</v>
+        <v>49.42330795931662</v>
       </c>
       <c r="G23">
-        <v>3.730730492808566</v>
+        <v>2.056998887762322</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.22345099660685</v>
+        <v>34.80952247461114</v>
       </c>
       <c r="J23">
-        <v>10.22140488366249</v>
+        <v>6.516206083975547</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.30248155239177</v>
+        <v>6.242858996493853</v>
       </c>
       <c r="M23">
-        <v>18.72498168813445</v>
+        <v>15.08328662274659</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.04575844140664</v>
+        <v>25.84379528186735</v>
       </c>
       <c r="C24">
-        <v>12.52778540531309</v>
+        <v>21.61440609731665</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.28403891620186</v>
+        <v>7.805475161068073</v>
       </c>
       <c r="F24">
-        <v>50.42254458986304</v>
+        <v>46.74697699776748</v>
       </c>
       <c r="G24">
-        <v>3.73712864744901</v>
+        <v>2.078966839670898</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>36.97685628924272</v>
+        <v>33.21846879415757</v>
       </c>
       <c r="J24">
-        <v>10.24383547119026</v>
+        <v>6.613090230173467</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.32905735961427</v>
+        <v>6.157655961085782</v>
       </c>
       <c r="M24">
-        <v>18.65898420706364</v>
+        <v>14.04143026410668</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.51095886510729</v>
+        <v>23.19712740654236</v>
       </c>
       <c r="C25">
-        <v>11.63295414855104</v>
+        <v>19.32896764160293</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.18328112344007</v>
+        <v>7.325959612649319</v>
       </c>
       <c r="F25">
-        <v>49.97890563740937</v>
+        <v>43.90229852803215</v>
       </c>
       <c r="G25">
-        <v>3.744519774412373</v>
+        <v>2.102753744062026</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.73433144341883</v>
+        <v>31.57143136215412</v>
       </c>
       <c r="J25">
-        <v>10.27012957718841</v>
+        <v>6.722566291166985</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.36311577325764</v>
+        <v>6.076508263575496</v>
       </c>
       <c r="M25">
-        <v>18.60294193790598</v>
+        <v>13.13040399493899</v>
       </c>
       <c r="N25">
         <v>0</v>
